--- a/99_チーム内打合せ用（総合演習）/社員データ.xlsx
+++ b/99_チーム内打合せ用（総合演習）/社員データ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\java3\99_チーム内打合せ用（総合演習）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="136">
   <si>
     <t>柳沢　明</t>
     <rPh sb="0" eb="2">
@@ -804,6 +804,26 @@
   </si>
   <si>
     <t>あやせ　みき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abc123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pst2000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pst2011</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pst2016</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1137,1362 +1157,1468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>199104101</v>
       </c>
       <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>101</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>199104102</v>
       </c>
       <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>101</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>199104103</v>
       </c>
       <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>101</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>30</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>199104104</v>
       </c>
       <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>101</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>34</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>199104105</v>
       </c>
       <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>102</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>199404101</v>
       </c>
       <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>103</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>44</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>199504101</v>
       </c>
       <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>103</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>43</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>31</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>47</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>4</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>48</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>44</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>199504102</v>
       </c>
       <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>105</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>51</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>51</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>52</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>48</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>199604101</v>
       </c>
       <c r="B10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>105</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>33</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>199604102</v>
       </c>
       <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>102</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>21</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>57</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>4</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>48</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>199704101</v>
       </c>
       <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>61</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>104</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>41</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>63</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>48</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>66</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>199704102</v>
       </c>
       <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>104</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>10</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>5</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>33</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>66</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>199804101</v>
       </c>
       <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>104</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>41</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>63</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>53</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>66</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>199804102</v>
       </c>
       <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
         <v>89</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>90</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>106</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>69</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>61</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>70</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>48</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>75</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>199904101</v>
       </c>
       <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>92</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>106</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>69</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>62</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>71</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>4</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>48</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>76</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>200004101</v>
       </c>
       <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
         <v>93</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>94</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>201</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>10</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>5</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>33</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>73</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>74</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>200104101</v>
       </c>
       <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" t="s">
         <v>95</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>96</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>38</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>301</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>10</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>5</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>33</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>73</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>78</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>201104101</v>
       </c>
       <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
         <v>97</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>98</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>106</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>69</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>61</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>70</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>53</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>75</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>201404101</v>
       </c>
       <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
         <v>99</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>100</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>106</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>69</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>62</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>71</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>3</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>53</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>76</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>201404102</v>
       </c>
       <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
         <v>101</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>102</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>18</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>106</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>69</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>63</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>79</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>3</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>53</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>80</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>201404103</v>
       </c>
       <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
         <v>103</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>104</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>18</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>106</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>69</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>63</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>79</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>4</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>48</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>80</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>201504101</v>
       </c>
       <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
         <v>105</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>106</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>18</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>206</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>81</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>61</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>70</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>4</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>48</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>75</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>201504102</v>
       </c>
       <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
         <v>107</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>108</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>18</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>206</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>81</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>61</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>70</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>53</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>75</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>201604101</v>
       </c>
       <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" t="s">
         <v>109</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>110</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>18</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>306</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>82</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>61</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>70</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>4</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>48</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>75</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>201604102</v>
       </c>
       <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
         <v>115</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>116</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>18</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>306</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>82</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>61</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>70</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>3</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>53</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>75</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>201604103</v>
       </c>
       <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
         <v>113</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>114</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>18</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>204</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>83</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>41</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>63</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>4</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>48</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>86</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>201704101</v>
       </c>
       <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" t="s">
         <v>117</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>118</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>18</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>204</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>83</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>41</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>63</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>3</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>53</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>86</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>201704102</v>
       </c>
       <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
         <v>111</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>112</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>18</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>304</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>84</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>41</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>63</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>4</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>48</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>87</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>201704103</v>
       </c>
       <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
         <v>119</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>120</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>18</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>406</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>85</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>61</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>70</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>4</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>48</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>88</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>201704104</v>
       </c>
       <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
         <v>121</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>122</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>18</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>406</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>85</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>61</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>70</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>3</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>53</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>88</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>201704106</v>
       </c>
       <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
         <v>123</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>124</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>38</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>106</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>69</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>61</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>70</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>3</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>53</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>75</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>201704107</v>
       </c>
       <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
         <v>125</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>126</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>18</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>106</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>69</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>61</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>70</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>3</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>53</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>75</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>201704108</v>
       </c>
       <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
         <v>127</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>128</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>18</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>106</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>69</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>62</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>71</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>3</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>53</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>76</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>201704109</v>
       </c>
       <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" t="s">
         <v>129</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>130</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>38</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>106</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>69</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>62</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>71</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>3</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>53</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>76</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/99_チーム内打合せ用（総合演習）/社員データ.xlsx
+++ b/99_チーム内打合せ用（総合演習）/社員データ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\java3\99_チーム内打合せ用（総合演習）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\javaWeb.git\99_チーム内打合せ用（総合演習）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="137">
   <si>
     <t>柳沢　明</t>
     <rPh sb="0" eb="2">
@@ -824,6 +824,10 @@
   </si>
   <si>
     <t>pst2016</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業1課</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1159,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2396,7 +2400,7 @@
         <v>61</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="J30">
         <v>4</v>
@@ -2495,7 +2499,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>201704107</v>
+        <v>201705101</v>
       </c>
       <c r="B33" t="s">
         <v>132</v>
@@ -2536,7 +2540,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>201704108</v>
+        <v>201705102</v>
       </c>
       <c r="B34" t="s">
         <v>132</v>
@@ -2577,7 +2581,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>201704109</v>
+        <v>201705103</v>
       </c>
       <c r="B35" t="s">
         <v>132</v>

--- a/99_チーム内打合せ用（総合演習）/社員データ.xlsx
+++ b/99_チーム内打合せ用（総合演習）/社員データ.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="employee" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="139">
   <si>
     <t>柳沢　明</t>
     <rPh sb="0" eb="2">
@@ -828,6 +829,14 @@
   </si>
   <si>
     <t>営業1課</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者フラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1163,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2625,4 +2634,1162 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>199104101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>101</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>199104102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>199104103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>101</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>199104104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>101</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>199104105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>102</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>199404101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>103</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>199504101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>103</v>
+      </c>
+      <c r="G8">
+        <v>31</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>199504102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>105</v>
+      </c>
+      <c r="G9">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>199604101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>105</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>199604102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>102</v>
+      </c>
+      <c r="G11" s="1">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>199704101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>104</v>
+      </c>
+      <c r="G12" s="1">
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>199704102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>104</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>199804101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>104</v>
+      </c>
+      <c r="G14" s="1">
+        <v>41</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>199804102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>106</v>
+      </c>
+      <c r="G15">
+        <v>61</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>199904101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>106</v>
+      </c>
+      <c r="G16">
+        <v>62</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>200004101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>201</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>200104101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>301</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>201104101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>106</v>
+      </c>
+      <c r="G19">
+        <v>61</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>201404101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>106</v>
+      </c>
+      <c r="G20">
+        <v>62</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>201404102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>106</v>
+      </c>
+      <c r="G21">
+        <v>63</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>201404103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>106</v>
+      </c>
+      <c r="G22">
+        <v>63</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>201504101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>206</v>
+      </c>
+      <c r="G23">
+        <v>61</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>201504102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>206</v>
+      </c>
+      <c r="G24">
+        <v>61</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>201604101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>306</v>
+      </c>
+      <c r="G25">
+        <v>61</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>201604102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>306</v>
+      </c>
+      <c r="G26">
+        <v>61</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>201604103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>204</v>
+      </c>
+      <c r="G27">
+        <v>41</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>201704101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>204</v>
+      </c>
+      <c r="G28">
+        <v>41</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>201704102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29">
+        <v>304</v>
+      </c>
+      <c r="G29">
+        <v>41</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>201704103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>406</v>
+      </c>
+      <c r="G30">
+        <v>61</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>201704104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>406</v>
+      </c>
+      <c r="G31">
+        <v>61</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>201704106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32">
+        <v>106</v>
+      </c>
+      <c r="G32">
+        <v>61</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>201705101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>106</v>
+      </c>
+      <c r="G33">
+        <v>61</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>201705102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>106</v>
+      </c>
+      <c r="G34">
+        <v>62</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>201705103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35">
+        <v>106</v>
+      </c>
+      <c r="G35">
+        <v>62</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/99_チーム内打合せ用（総合演習）/社員データ.xlsx
+++ b/99_チーム内打合せ用（総合演習）/社員データ.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="629" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="employee" sheetId="2" r:id="rId2"/>
+    <sheet name="base" sheetId="3" r:id="rId3"/>
+    <sheet name="department" sheetId="4" r:id="rId4"/>
+    <sheet name="division" sheetId="5" r:id="rId5"/>
+    <sheet name="position_table" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="187">
   <si>
     <t>柳沢　明</t>
     <rPh sb="0" eb="2">
@@ -838,6 +842,151 @@
   <si>
     <t>登録日時</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:11</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:12</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:13</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:14</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:15</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:16</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:17</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:18</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:19</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:20</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:21</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:22</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:23</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:24</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:25</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:26</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:27</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:28</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:29</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:30</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:31</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:32</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:33</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:34</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:35</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:36</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:37</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:38</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:39</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:40</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:41</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:42</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:43</t>
+  </si>
+  <si>
+    <t>本社</t>
+  </si>
+  <si>
+    <t>名古屋支店</t>
+  </si>
+  <si>
+    <t>大阪支店</t>
+  </si>
+  <si>
+    <t>仙台支店</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>推進企画課</t>
+  </si>
+  <si>
+    <t>事業企画課</t>
+  </si>
+  <si>
+    <t>経理課</t>
+  </si>
+  <si>
+    <t>役員</t>
+  </si>
+  <si>
+    <t>部長</t>
+  </si>
+  <si>
+    <t>主任</t>
+  </si>
+  <si>
+    <t>一般社員</t>
+  </si>
+  <si>
+    <t>契約社員</t>
+  </si>
+  <si>
+    <t>派遣社員・パート</t>
   </si>
 </sst>
 </file>
@@ -2641,7 +2790,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2650,9 +2799,12 @@
     <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -2730,6 +2882,12 @@
       <c r="K2" t="s">
         <v>22</v>
       </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
@@ -2765,6 +2923,12 @@
       <c r="K3" t="s">
         <v>22</v>
       </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
@@ -2800,6 +2964,12 @@
       <c r="K4" t="s">
         <v>22</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -2832,6 +3002,12 @@
       <c r="K5" t="s">
         <v>35</v>
       </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
@@ -2861,6 +3037,12 @@
       <c r="J6" t="s">
         <v>40</v>
       </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
@@ -2893,6 +3075,12 @@
       <c r="K7" t="s">
         <v>35</v>
       </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
@@ -2925,6 +3113,12 @@
       <c r="K8" t="s">
         <v>35</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
@@ -2954,6 +3148,12 @@
       <c r="J9" t="s">
         <v>54</v>
       </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
@@ -2983,6 +3183,12 @@
       <c r="J10" t="s">
         <v>54</v>
       </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
@@ -3012,6 +3218,12 @@
       <c r="J11" t="s">
         <v>40</v>
       </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
@@ -3044,6 +3256,12 @@
       <c r="K12" t="s">
         <v>35</v>
       </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
@@ -3076,6 +3294,12 @@
       <c r="K13" t="s">
         <v>35</v>
       </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
@@ -3108,6 +3332,12 @@
       <c r="K14" t="s">
         <v>35</v>
       </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
@@ -3140,6 +3370,12 @@
       <c r="K15" t="s">
         <v>35</v>
       </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
@@ -3172,8 +3408,14 @@
       <c r="K16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>200004101</v>
       </c>
@@ -3207,8 +3449,14 @@
       <c r="K17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>200104101</v>
       </c>
@@ -3242,8 +3490,14 @@
       <c r="K18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>201104101</v>
       </c>
@@ -3274,8 +3528,14 @@
       <c r="K19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>201404101</v>
       </c>
@@ -3306,8 +3566,14 @@
       <c r="K20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>201404102</v>
       </c>
@@ -3338,8 +3604,14 @@
       <c r="K21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>201404103</v>
       </c>
@@ -3370,8 +3642,14 @@
       <c r="K22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>201504101</v>
       </c>
@@ -3402,8 +3680,14 @@
       <c r="K23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>201504102</v>
       </c>
@@ -3434,8 +3718,14 @@
       <c r="K24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>201604101</v>
       </c>
@@ -3466,8 +3756,14 @@
       <c r="K25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>201604102</v>
       </c>
@@ -3498,8 +3794,14 @@
       <c r="K26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>201604103</v>
       </c>
@@ -3530,8 +3832,14 @@
       <c r="K27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>201704101</v>
       </c>
@@ -3562,8 +3870,14 @@
       <c r="K28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>201704102</v>
       </c>
@@ -3594,8 +3908,14 @@
       <c r="K29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>201704103</v>
       </c>
@@ -3626,8 +3946,14 @@
       <c r="K30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>201704104</v>
       </c>
@@ -3658,8 +3984,14 @@
       <c r="K31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>201704106</v>
       </c>
@@ -3690,8 +4022,14 @@
       <c r="K32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>201705101</v>
       </c>
@@ -3722,8 +4060,14 @@
       <c r="K33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>201705102</v>
       </c>
@@ -3754,8 +4098,14 @@
       <c r="K34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>201705103</v>
       </c>
@@ -3785,6 +4135,12 @@
       </c>
       <c r="K35" t="s">
         <v>35</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3792,4 +4148,354 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>201</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>204</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>206</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>301</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>304</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>306</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>406</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/99_チーム内打合せ用（総合演習）/社員データ.xlsx
+++ b/99_チーム内打合せ用（総合演習）/社員データ.xlsx
@@ -5,14 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\java3\99_チーム内打合せ用（総合演習）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\javaWeb.git\99_チーム内打合せ用（総合演習）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="629" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="employee" sheetId="2" r:id="rId2"/>
+    <sheet name="base" sheetId="3" r:id="rId3"/>
+    <sheet name="department" sheetId="4" r:id="rId4"/>
+    <sheet name="division" sheetId="5" r:id="rId5"/>
+    <sheet name="position_table" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="187">
   <si>
     <t>柳沢　明</t>
     <rPh sb="0" eb="2">
@@ -825,6 +830,163 @@
   <si>
     <t>pst2016</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業1課</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者フラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:11</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:12</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:13</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:14</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:15</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:16</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:17</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:18</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:19</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:20</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:21</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:22</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:23</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:24</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:25</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:26</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:27</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:28</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:29</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:30</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:31</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:32</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:33</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:34</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:35</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:36</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:37</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:38</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:39</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:40</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:41</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:42</t>
+  </si>
+  <si>
+    <t>2017/10/27 17:44:43</t>
+  </si>
+  <si>
+    <t>本社</t>
+  </si>
+  <si>
+    <t>名古屋支店</t>
+  </si>
+  <si>
+    <t>大阪支店</t>
+  </si>
+  <si>
+    <t>仙台支店</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>推進企画課</t>
+  </si>
+  <si>
+    <t>事業企画課</t>
+  </si>
+  <si>
+    <t>経理課</t>
+  </si>
+  <si>
+    <t>役員</t>
+  </si>
+  <si>
+    <t>部長</t>
+  </si>
+  <si>
+    <t>主任</t>
+  </si>
+  <si>
+    <t>一般社員</t>
+  </si>
+  <si>
+    <t>契約社員</t>
+  </si>
+  <si>
+    <t>派遣社員・パート</t>
   </si>
 </sst>
 </file>
@@ -1159,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2396,7 +2558,7 @@
         <v>61</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="J30">
         <v>4</v>
@@ -2495,7 +2657,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>201704107</v>
+        <v>201705101</v>
       </c>
       <c r="B33" t="s">
         <v>132</v>
@@ -2536,7 +2698,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>201704108</v>
+        <v>201705102</v>
       </c>
       <c r="B34" t="s">
         <v>132</v>
@@ -2577,7 +2739,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>201704109</v>
+        <v>201705103</v>
       </c>
       <c r="B35" t="s">
         <v>132</v>
@@ -2621,4 +2783,1719 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>199104101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>101</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>199104102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>199104103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>101</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>199104104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>101</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>199104105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>102</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>199404101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>103</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>199504101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>103</v>
+      </c>
+      <c r="G8">
+        <v>31</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>199504102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>105</v>
+      </c>
+      <c r="G9">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>199604101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>105</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>199604102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>102</v>
+      </c>
+      <c r="G11" s="1">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>199704101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>104</v>
+      </c>
+      <c r="G12" s="1">
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>199704102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>104</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>199804101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>104</v>
+      </c>
+      <c r="G14" s="1">
+        <v>41</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>199804102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>106</v>
+      </c>
+      <c r="G15">
+        <v>61</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>199904101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>106</v>
+      </c>
+      <c r="G16">
+        <v>62</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>200004101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>201</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>200104101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>301</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>201104101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>106</v>
+      </c>
+      <c r="G19">
+        <v>61</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>201404101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>106</v>
+      </c>
+      <c r="G20">
+        <v>62</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>201404102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>106</v>
+      </c>
+      <c r="G21">
+        <v>63</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>201404103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>106</v>
+      </c>
+      <c r="G22">
+        <v>63</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>201504101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>206</v>
+      </c>
+      <c r="G23">
+        <v>61</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>201504102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>206</v>
+      </c>
+      <c r="G24">
+        <v>61</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>201604101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>306</v>
+      </c>
+      <c r="G25">
+        <v>61</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>201604102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>306</v>
+      </c>
+      <c r="G26">
+        <v>61</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>201604103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>204</v>
+      </c>
+      <c r="G27">
+        <v>41</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>201704101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>204</v>
+      </c>
+      <c r="G28">
+        <v>41</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>201704102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29">
+        <v>304</v>
+      </c>
+      <c r="G29">
+        <v>41</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>201704103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>406</v>
+      </c>
+      <c r="G30">
+        <v>61</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>201704104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>406</v>
+      </c>
+      <c r="G31">
+        <v>61</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>201704106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32">
+        <v>106</v>
+      </c>
+      <c r="G32">
+        <v>61</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>201705101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>106</v>
+      </c>
+      <c r="G33">
+        <v>61</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>201705102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>106</v>
+      </c>
+      <c r="G34">
+        <v>62</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>201705103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35">
+        <v>106</v>
+      </c>
+      <c r="G35">
+        <v>62</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K35" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>201</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>204</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>206</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>301</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>304</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>306</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>406</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>